--- a/Second Semester/MIB Decision-Making and Analytical Skills/Trial Exam iman/Alireza exam solution.xlsx
+++ b/Second Semester/MIB Decision-Making and Analytical Skills/Trial Exam iman/Alireza exam solution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alireza/Desktop/IBS-class/Second Semester/MIB Decision-Making and Analytical Skills/Trial Exam iman/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alireza/Desktop/Alireza/IBS-class/Second Semester/MIB Decision-Making and Analytical Skills/Trial Exam iman/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B191AF-635F-9048-A533-8028D48E1C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B5545C-6907-7841-BDF2-013EBFED487A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14340" firstSheet="1" activeTab="5" xr2:uid="{F7FE6ECC-2A5F-8247-A33B-D6CA7D1929B3}"/>
+    <workbookView xWindow="0" yWindow="1400" windowWidth="25600" windowHeight="14340" activeTab="2" xr2:uid="{F7FE6ECC-2A5F-8247-A33B-D6CA7D1929B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId15"/>
+    <pivotCache cacheId="19" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="483">
   <si>
     <t>A construction company has to complete a project no later than three months from now or there will be significant cost overruns. The manager of the construction company believes that there are four possible values for the random variable X, the number of months from now it will take to complete this project: 2, 2.5, 3, and 3.5. The manager currently thinks that the probabilities of these four possibilities are in the ratio 1 to 2 to 4 to 2. That is, X = 2.5 is twice as likely as X = 2, X = 3 is twice as likely as X = 2.5, and X = 3.5 is half as likely as X = 3.</t>
   </si>
@@ -1883,13 +1883,47 @@
   <si>
     <t>predict Y</t>
   </si>
+  <si>
+    <t>confidence level</t>
+  </si>
+  <si>
+    <t>observation</t>
+  </si>
+  <si>
+    <t>Upper limit</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>Demand*Probability</t>
+  </si>
+  <si>
+    <t>Expected Demand</t>
+  </si>
+  <si>
+    <t>Expected cost</t>
+  </si>
+  <si>
+    <t>Probability*(E(X)-demand)^2</t>
+  </si>
+  <si>
+    <t>Variance Demand</t>
+  </si>
+  <si>
+    <t>Standard Deviation of Demand</t>
+  </si>
+  <si>
+    <t>Standard Deviation of Cost</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1898,7 +1932,7 @@
     <numFmt numFmtId="168" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2021,6 +2055,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="19">
@@ -2248,7 +2288,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2259,8 +2299,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2411,6 +2452,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="13" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2458,6 +2512,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2516,8 +2576,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="8" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="10" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - Accent2" xfId="4" builtinId="34"/>
     <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
@@ -2525,6 +2601,7 @@
     <cellStyle name="40% - Accent6" xfId="5" builtinId="51"/>
     <cellStyle name="60% - Accent1" xfId="3" builtinId="32"/>
     <cellStyle name="Comma" xfId="8" builtinId="3"/>
+    <cellStyle name="Currency" xfId="10" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="7" xr:uid="{B36536BD-CD87-4447-A3DB-9E36CC8594F7}"/>
@@ -9195,7 +9272,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{023B251D-0D62-CF4E-898D-2CCC61C47A52}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{023B251D-0D62-CF4E-898D-2CCC61C47A52}" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0">
@@ -9510,7 +9587,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A3DF1639-0BB8-A441-B63F-B438F0F72668}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A3DF1639-0BB8-A441-B63F-B438F0F72668}" name="PivotTable2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -9920,81 +9997,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
+      <c r="A3" s="99"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="92"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
     </row>
     <row r="7" spans="1:13">
       <c r="B7" s="3" t="s">
@@ -10100,93 +10177,93 @@
       <c r="G11" s="1"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
       <c r="G13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="88"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
+      <c r="A14" s="95"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
       <c r="G16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="88"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
+      <c r="A17" s="95"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
       <c r="G19" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="88"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
+      <c r="A20" s="95"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="88" t="s">
+      <c r="A22" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
       <c r="G22" t="s">
         <v>22</v>
       </c>
@@ -10196,24 +10273,24 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="88"/>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
+      <c r="A23" s="95"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="88" t="s">
+      <c r="A25" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
       <c r="G25" t="s">
         <v>19</v>
       </c>
@@ -10223,12 +10300,12 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="88"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
+      <c r="A26" s="95"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
       <c r="G26" t="s">
         <v>20</v>
       </c>
@@ -10270,7 +10347,7 @@
   <dimension ref="A1:R71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F9"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10278,6 +10355,7 @@
     <col min="1" max="1" width="12.5" style="23" customWidth="1"/>
     <col min="2" max="3" width="9.1640625" style="26"/>
     <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -10601,22 +10679,22 @@
       <c r="C20" s="26">
         <v>71.599999999999994</v>
       </c>
-      <c r="E20" s="104" t="s">
+      <c r="E20" s="113" t="s">
         <v>387</v>
       </c>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="104"/>
-      <c r="L20" s="104"/>
-      <c r="M20" s="104"/>
-      <c r="N20" s="104"/>
-      <c r="O20" s="104"/>
-      <c r="P20" s="104"/>
-      <c r="Q20" s="104"/>
-      <c r="R20" s="104"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="113"/>
+      <c r="Q20" s="113"/>
+      <c r="R20" s="113"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="23">
@@ -10628,20 +10706,20 @@
       <c r="C21" s="26">
         <v>62.3</v>
       </c>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="104"/>
-      <c r="K21" s="104"/>
-      <c r="L21" s="104"/>
-      <c r="M21" s="104"/>
-      <c r="N21" s="104"/>
-      <c r="O21" s="104"/>
-      <c r="P21" s="104"/>
-      <c r="Q21" s="104"/>
-      <c r="R21" s="104"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="113"/>
+      <c r="Q21" s="113"/>
+      <c r="R21" s="113"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="23">
@@ -10653,14 +10731,14 @@
       <c r="C22" s="26">
         <v>66.400000000000006</v>
       </c>
-      <c r="E22" s="105" t="s">
+      <c r="E22" s="114" t="s">
         <v>388</v>
       </c>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="105"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="114"/>
       <c r="K22" s="33"/>
       <c r="L22" s="33"/>
       <c r="M22" s="33"/>
@@ -10680,22 +10758,22 @@
       <c r="C23" s="26">
         <v>78.3</v>
       </c>
-      <c r="E23" s="106" t="s">
+      <c r="E23" s="115" t="s">
         <v>389</v>
       </c>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="106"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="106"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="115"/>
+      <c r="O23" s="115"/>
+      <c r="P23" s="115"/>
+      <c r="Q23" s="115"/>
+      <c r="R23" s="115"/>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="23">
@@ -10729,6 +10807,22 @@
       <c r="C26" s="26">
         <v>70.900000000000006</v>
       </c>
+      <c r="E26" s="88" t="s">
+        <v>370</v>
+      </c>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="23">
@@ -10740,6 +10834,24 @@
       <c r="C27" s="26">
         <v>70</v>
       </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="89" t="s">
+        <v>472</v>
+      </c>
+      <c r="H27" s="89">
+        <v>0.95</v>
+      </c>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="23">
@@ -10751,6 +10863,20 @@
       <c r="C28" s="26">
         <v>66.5</v>
       </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="23">
@@ -10762,6 +10888,22 @@
       <c r="C29" s="26">
         <v>71.900000000000006</v>
       </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="88" t="s">
+        <v>379</v>
+      </c>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="23">
@@ -10773,6 +10915,37 @@
       <c r="C30" s="26">
         <v>67.8</v>
       </c>
+      <c r="E30" s="90" t="s">
+        <v>473</v>
+      </c>
+      <c r="F30" s="90" t="s">
+        <v>382</v>
+      </c>
+      <c r="G30" s="90" t="s">
+        <v>406</v>
+      </c>
+      <c r="H30" s="90" t="s">
+        <v>407</v>
+      </c>
+      <c r="I30" s="90" t="s">
+        <v>410</v>
+      </c>
+      <c r="J30" s="90" t="s">
+        <v>386</v>
+      </c>
+      <c r="K30" s="26"/>
+      <c r="L30" s="91" t="s">
+        <v>474</v>
+      </c>
+      <c r="M30" s="92">
+        <f>F31+J31</f>
+        <v>66.801892403299604</v>
+      </c>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="23">
@@ -10784,6 +10957,42 @@
       <c r="C31" s="26">
         <v>70.099999999999994</v>
       </c>
+      <c r="E31" s="93">
+        <v>70</v>
+      </c>
+      <c r="F31" s="94">
+        <f>AVERAGE(B2:B71)</f>
+        <v>65.84285714285717</v>
+      </c>
+      <c r="G31" s="93">
+        <f>_xlfn.STDEV.S(B2:B71)</f>
+        <v>4.0220973484918714</v>
+      </c>
+      <c r="H31" s="93">
+        <f>E31-1</f>
+        <v>69</v>
+      </c>
+      <c r="I31" s="93">
+        <f>_xlfn.T.INV.2T(1-H27,69)</f>
+        <v>1.9949454151072357</v>
+      </c>
+      <c r="J31" s="93">
+        <f>I31*(G31/SQRT(E31))</f>
+        <v>0.95903526044243637</v>
+      </c>
+      <c r="K31" s="26"/>
+      <c r="L31" s="91" t="s">
+        <v>385</v>
+      </c>
+      <c r="M31" s="92">
+        <f>F31-J31</f>
+        <v>64.883821882414736</v>
+      </c>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="23">
@@ -10795,8 +11004,22 @@
       <c r="C32" s="26">
         <v>72.099999999999994</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="23">
         <v>32</v>
       </c>
@@ -10806,8 +11029,22 @@
       <c r="C33" s="26">
         <v>70.7</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="23">
         <v>33</v>
       </c>
@@ -10817,8 +11054,22 @@
       <c r="C34" s="26">
         <v>60.3</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="23">
         <v>34</v>
       </c>
@@ -10828,8 +11079,22 @@
       <c r="C35" s="26">
         <v>65.7</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="23">
         <v>35</v>
       </c>
@@ -10839,8 +11104,22 @@
       <c r="C36" s="26">
         <v>68.599999999999994</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="23">
         <v>36</v>
       </c>
@@ -10850,8 +11129,24 @@
       <c r="C37" s="26">
         <v>70.400000000000006</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="E37" s="26"/>
+      <c r="F37" s="88" t="s">
+        <v>380</v>
+      </c>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="23">
         <v>37</v>
       </c>
@@ -10861,8 +11156,39 @@
       <c r="C38" s="26">
         <v>61.4</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="E38" s="90" t="s">
+        <v>473</v>
+      </c>
+      <c r="F38" s="90" t="s">
+        <v>382</v>
+      </c>
+      <c r="G38" s="90" t="s">
+        <v>406</v>
+      </c>
+      <c r="H38" s="90" t="s">
+        <v>407</v>
+      </c>
+      <c r="I38" s="90" t="s">
+        <v>410</v>
+      </c>
+      <c r="J38" s="90" t="s">
+        <v>386</v>
+      </c>
+      <c r="K38" s="26"/>
+      <c r="L38" s="91" t="s">
+        <v>474</v>
+      </c>
+      <c r="M38" s="92">
+        <f>F39+J39</f>
+        <v>68.553885532611659</v>
+      </c>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="23">
         <v>38</v>
       </c>
@@ -10872,8 +11198,44 @@
       <c r="C39" s="26">
         <v>62.7</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="E39" s="93">
+        <v>70</v>
+      </c>
+      <c r="F39" s="94">
+        <f>AVERAGE(C2:C71)</f>
+        <v>67.105714285714271</v>
+      </c>
+      <c r="G39" s="93">
+        <f>_xlfn.STDEV.S(C2:C71)</f>
+        <v>6.0734844406252995</v>
+      </c>
+      <c r="H39" s="93">
+        <f>E39-1</f>
+        <v>69</v>
+      </c>
+      <c r="I39" s="93">
+        <f>_xlfn.T.INV.2T(1-H27,69)</f>
+        <v>1.9949454151072357</v>
+      </c>
+      <c r="J39" s="93">
+        <f>I39*(G39/SQRT(E39))</f>
+        <v>1.4481712468973922</v>
+      </c>
+      <c r="K39" s="26"/>
+      <c r="L39" s="91" t="s">
+        <v>385</v>
+      </c>
+      <c r="M39" s="92">
+        <f>F39-J39</f>
+        <v>65.657543038816883</v>
+      </c>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="23">
         <v>39</v>
       </c>
@@ -10883,8 +11245,22 @@
       <c r="C40" s="26">
         <v>64</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="23">
         <v>40</v>
       </c>
@@ -10894,8 +11270,22 @@
       <c r="C41" s="26">
         <v>69.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="23">
         <v>41</v>
       </c>
@@ -10905,8 +11295,22 @@
       <c r="C42" s="26">
         <v>62.3</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="23">
         <v>42</v>
       </c>
@@ -10916,8 +11320,22 @@
       <c r="C43" s="26">
         <v>66.099999999999994</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="23">
         <v>43</v>
       </c>
@@ -10927,8 +11345,22 @@
       <c r="C44" s="26">
         <v>62.1</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="23">
         <v>44</v>
       </c>
@@ -10938,8 +11370,24 @@
       <c r="C45" s="26">
         <v>68</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="E45" s="88" t="s">
+        <v>375</v>
+      </c>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26"/>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" s="23">
         <v>45</v>
       </c>
@@ -10949,8 +11397,24 @@
       <c r="C46" s="26">
         <v>60.6</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="E46" s="111" t="s">
+        <v>387</v>
+      </c>
+      <c r="F46" s="111"/>
+      <c r="G46" s="111"/>
+      <c r="H46" s="111"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="111"/>
+      <c r="K46" s="111"/>
+      <c r="L46" s="111"/>
+      <c r="M46" s="111"/>
+      <c r="N46" s="111"/>
+      <c r="O46" s="111"/>
+      <c r="P46" s="111"/>
+      <c r="Q46" s="111"/>
+      <c r="R46" s="111"/>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" s="23">
         <v>46</v>
       </c>
@@ -10960,8 +11424,22 @@
       <c r="C47" s="26">
         <v>64.7</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="E47" s="111"/>
+      <c r="F47" s="111"/>
+      <c r="G47" s="111"/>
+      <c r="H47" s="111"/>
+      <c r="I47" s="111"/>
+      <c r="J47" s="111"/>
+      <c r="K47" s="111"/>
+      <c r="L47" s="111"/>
+      <c r="M47" s="111"/>
+      <c r="N47" s="111"/>
+      <c r="O47" s="111"/>
+      <c r="P47" s="111"/>
+      <c r="Q47" s="111"/>
+      <c r="R47" s="111"/>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" s="23">
         <v>47</v>
       </c>
@@ -10971,8 +11449,24 @@
       <c r="C48" s="26">
         <v>60.6</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="E48" s="112" t="s">
+        <v>388</v>
+      </c>
+      <c r="F48" s="112"/>
+      <c r="G48" s="112"/>
+      <c r="H48" s="112"/>
+      <c r="I48" s="112"/>
+      <c r="J48" s="112"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="26"/>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" s="23">
         <v>48</v>
       </c>
@@ -10982,8 +11476,24 @@
       <c r="C49" s="26">
         <v>62.3</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="E49" s="111" t="s">
+        <v>389</v>
+      </c>
+      <c r="F49" s="112"/>
+      <c r="G49" s="112"/>
+      <c r="H49" s="112"/>
+      <c r="I49" s="112"/>
+      <c r="J49" s="112"/>
+      <c r="K49" s="112"/>
+      <c r="L49" s="112"/>
+      <c r="M49" s="112"/>
+      <c r="N49" s="112"/>
+      <c r="O49" s="112"/>
+      <c r="P49" s="112"/>
+      <c r="Q49" s="112"/>
+      <c r="R49" s="112"/>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" s="23">
         <v>49</v>
       </c>
@@ -10994,7 +11504,7 @@
         <v>59.1</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:18">
       <c r="A51" s="23">
         <v>50</v>
       </c>
@@ -11005,7 +11515,7 @@
         <v>60.8</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:18">
       <c r="A52" s="23">
         <v>51</v>
       </c>
@@ -11016,7 +11526,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:18">
       <c r="A53" s="23">
         <v>52</v>
       </c>
@@ -11027,7 +11537,7 @@
         <v>61.6</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:18">
       <c r="A54" s="23">
         <v>53</v>
       </c>
@@ -11038,7 +11548,7 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:18">
       <c r="A55" s="23">
         <v>54</v>
       </c>
@@ -11049,7 +11559,7 @@
         <v>55.8</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:18">
       <c r="A56" s="23">
         <v>55</v>
       </c>
@@ -11060,7 +11570,7 @@
         <v>67.8</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:18">
       <c r="A57" s="23">
         <v>56</v>
       </c>
@@ -11071,7 +11581,7 @@
         <v>64.099999999999994</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:18">
       <c r="A58" s="23">
         <v>57</v>
       </c>
@@ -11082,7 +11592,7 @@
         <v>63.9</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:18">
       <c r="A59" s="23">
         <v>58</v>
       </c>
@@ -11093,7 +11603,7 @@
         <v>60.2</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:18">
       <c r="A60" s="23">
         <v>59</v>
       </c>
@@ -11104,7 +11614,7 @@
         <v>62.3</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:18">
       <c r="A61" s="23">
         <v>60</v>
       </c>
@@ -11115,7 +11625,7 @@
         <v>61.1</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:18">
       <c r="A62" s="23">
         <v>61</v>
       </c>
@@ -11126,7 +11636,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:18">
       <c r="A63" s="23">
         <v>62</v>
       </c>
@@ -11137,7 +11647,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:18">
       <c r="A64" s="23">
         <v>63</v>
       </c>
@@ -11226,10 +11736,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="E49:R49"/>
     <mergeCell ref="E20:R21"/>
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:R23"/>
+    <mergeCell ref="E46:R47"/>
+    <mergeCell ref="E48:J48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11320,16 +11833,16 @@
       <c r="B4" s="34">
         <v>590.83000000000004</v>
       </c>
-      <c r="H4" s="107" t="s">
+      <c r="H4" s="116" t="s">
         <v>403</v>
       </c>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="109"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="118"/>
     </row>
     <row r="5" spans="1:15" ht="20" thickBot="1">
       <c r="A5" s="23">
@@ -11341,16 +11854,16 @@
       <c r="E5" t="s">
         <v>395</v>
       </c>
-      <c r="H5" s="110" t="s">
+      <c r="H5" s="119" t="s">
         <v>404</v>
       </c>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="112"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="121"/>
     </row>
     <row r="6" spans="1:15" ht="17" thickBot="1">
       <c r="A6" s="23">
@@ -11577,10 +12090,10 @@
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
-      <c r="L14" s="113" t="s">
+      <c r="L14" s="122" t="s">
         <v>411</v>
       </c>
-      <c r="M14" s="113"/>
+      <c r="M14" s="122"/>
       <c r="N14" s="26"/>
       <c r="O14" s="40"/>
     </row>
@@ -11601,10 +12114,10 @@
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
-      <c r="L15" s="113" t="s">
+      <c r="L15" s="122" t="s">
         <v>412</v>
       </c>
-      <c r="M15" s="113"/>
+      <c r="M15" s="122"/>
       <c r="N15" s="26"/>
       <c r="O15" s="40"/>
     </row>
@@ -11643,16 +12156,16 @@
       <c r="F17" s="20">
         <v>1.9842169515864165</v>
       </c>
-      <c r="H17" s="114" t="s">
+      <c r="H17" s="123" t="s">
         <v>413</v>
       </c>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="116"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="124"/>
+      <c r="N17" s="124"/>
+      <c r="O17" s="125"/>
     </row>
     <row r="18" spans="1:15" ht="16" customHeight="1">
       <c r="A18" s="23">
@@ -11661,14 +12174,14 @@
       <c r="B18" s="34">
         <v>501.19</v>
       </c>
-      <c r="H18" s="114"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="115"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="116"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="124"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="125"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="23">
@@ -11677,14 +12190,14 @@
       <c r="B19" s="34">
         <v>408.54</v>
       </c>
-      <c r="H19" s="114"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="115"/>
-      <c r="N19" s="115"/>
-      <c r="O19" s="116"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="124"/>
+      <c r="N19" s="124"/>
+      <c r="O19" s="125"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="23">
@@ -12461,23 +12974,23 @@
       <c r="E8" s="63"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="126" t="s">
         <v>449</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
       <c r="E9" s="64" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" thickBot="1">
-      <c r="A10" s="119" t="s">
+      <c r="A10" s="128" t="s">
         <v>451</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
       <c r="E10" s="65" t="s">
         <v>452</v>
       </c>
@@ -12605,19 +13118,19 @@
       <c r="A25" s="75" t="s">
         <v>462</v>
       </c>
-      <c r="B25" s="121" t="s">
+      <c r="B25" s="130" t="s">
         <v>463</v>
       </c>
-      <c r="C25" s="121"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="122"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="131"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="68"/>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="122"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="131"/>
     </row>
     <row r="27" spans="1:5" ht="17" thickBot="1">
       <c r="A27" s="76"/>
@@ -15244,32 +15757,32 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:11" ht="16" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="8"/>
@@ -15293,23 +15806,51 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF63F2E-E111-4A48-A55A-EA92951BEC3B}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:AG14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="B4:G8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:33">
       <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="I1" s="132" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="91"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -15325,16 +15866,86 @@
       <c r="E2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="133" t="s">
+        <v>475</v>
+      </c>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3" s="134" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="134" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="M3" s="88" t="s">
+        <v>477</v>
+      </c>
+      <c r="N3" s="88" t="s">
+        <v>478</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="P3" s="88" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q3" s="88" t="s">
+        <v>481</v>
+      </c>
+      <c r="R3" s="88" t="s">
+        <v>482</v>
+      </c>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" s="10">
         <v>10</v>
       </c>
@@ -15360,8 +15971,58 @@
         <f>AVERAGE(A4:A14)</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4" s="91">
+        <v>10</v>
+      </c>
+      <c r="J4" s="135">
+        <v>0.05</v>
+      </c>
+      <c r="K4" s="26"/>
+      <c r="L4" s="23">
+        <f>I4*J4</f>
+        <v>0.5</v>
+      </c>
+      <c r="M4" s="136">
+        <f>SUM(L4:L14)</f>
+        <v>13.81</v>
+      </c>
+      <c r="N4" s="137">
+        <f>M4*5</f>
+        <v>69.05</v>
+      </c>
+      <c r="O4" s="138">
+        <f>(($E$4-I4)^2)*J4</f>
+        <v>4.3005346449012496</v>
+      </c>
+      <c r="P4" s="136">
+        <f>SUM(O4:O14)</f>
+        <v>175.85005879802495</v>
+      </c>
+      <c r="Q4" s="26">
+        <f>SQRT(P4)</f>
+        <v>13.260846835629501</v>
+      </c>
+      <c r="R4" s="139">
+        <f>Q4*5</f>
+        <v>66.30423417814751</v>
+      </c>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" s="10">
         <v>11</v>
       </c>
@@ -15387,8 +16048,43 @@
         <f>SQRT(SUM(E4:E14))</f>
         <v>2.1572899666016161</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="I5" s="91">
+        <v>11</v>
+      </c>
+      <c r="J5" s="135">
+        <v>0.1</v>
+      </c>
+      <c r="K5" s="26"/>
+      <c r="L5" s="23">
+        <f>I5*J5</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="138">
+        <f t="shared" ref="O5:O14" si="3">(($E$4-I5)^2)*J5</f>
+        <v>10.555908289802499</v>
+      </c>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6" s="10">
         <v>12</v>
       </c>
@@ -15414,8 +16110,43 @@
         <f>SUM(C4:C14)</f>
         <v>13.81</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="I6" s="91">
+        <v>12</v>
+      </c>
+      <c r="J6" s="135">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K6" s="26"/>
+      <c r="L6" s="23">
+        <f t="shared" ref="L6:L13" si="4">I6*J6</f>
+        <v>1.6800000000000002</v>
+      </c>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="138">
+        <f t="shared" si="3"/>
+        <v>17.795046205723498</v>
+      </c>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7" s="10">
         <v>13</v>
       </c>
@@ -15441,8 +16172,43 @@
         <f>G6*5</f>
         <v>69.05</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="I7" s="91">
+        <v>13</v>
+      </c>
+      <c r="J7" s="135">
+        <v>0.16</v>
+      </c>
+      <c r="K7" s="26"/>
+      <c r="L7" s="23">
+        <f t="shared" si="4"/>
+        <v>2.08</v>
+      </c>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="138">
+        <f>(($E$4-I7)^2)*J7</f>
+        <v>24.104938063683996</v>
+      </c>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" s="10">
         <v>14</v>
       </c>
@@ -15468,8 +16234,43 @@
         <f>G5*5</f>
         <v>10.786449833008081</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="I8" s="91">
+        <v>14</v>
+      </c>
+      <c r="J8" s="135">
+        <v>0.21</v>
+      </c>
+      <c r="K8" s="26"/>
+      <c r="L8" s="23">
+        <f t="shared" si="4"/>
+        <v>2.94</v>
+      </c>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="138">
+        <f t="shared" si="3"/>
+        <v>37.002893108585241</v>
+      </c>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" s="10">
         <v>15</v>
       </c>
@@ -15488,8 +16289,43 @@
         <f t="shared" si="2"/>
         <v>0.18409299999999984</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="I9" s="91">
+        <v>15</v>
+      </c>
+      <c r="J9" s="135">
+        <v>0.13</v>
+      </c>
+      <c r="K9" s="26"/>
+      <c r="L9" s="23">
+        <f t="shared" si="4"/>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="138">
+        <f t="shared" si="3"/>
+        <v>26.487843576743245</v>
+      </c>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+    </row>
+    <row r="10" spans="1:33">
       <c r="A10" s="10">
         <v>16</v>
       </c>
@@ -15508,8 +16344,43 @@
         <f t="shared" si="2"/>
         <v>0.52757099999999979</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="I10" s="91">
+        <v>16</v>
+      </c>
+      <c r="J10" s="135">
+        <v>0.11</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="23">
+        <f t="shared" si="4"/>
+        <v>1.76</v>
+      </c>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="138">
+        <f>(($E$4-I10)^2)*J10</f>
+        <v>25.663113618782749</v>
+      </c>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
+    </row>
+    <row r="11" spans="1:33">
       <c r="A11" s="10">
         <v>17</v>
       </c>
@@ -15528,8 +16399,43 @@
         <f t="shared" si="2"/>
         <v>0.40704399999999985</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="I11" s="91">
+        <v>17</v>
+      </c>
+      <c r="J11" s="135">
+        <v>0.04</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="23">
+        <f t="shared" si="4"/>
+        <v>0.68</v>
+      </c>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="138">
+        <f t="shared" si="3"/>
+        <v>10.593976915920999</v>
+      </c>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="26"/>
+    </row>
+    <row r="12" spans="1:33">
       <c r="A12" s="10">
         <v>18</v>
       </c>
@@ -15548,8 +16454,43 @@
         <f t="shared" si="2"/>
         <v>0.5266829999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="I12" s="91">
+        <v>18</v>
+      </c>
+      <c r="J12" s="135">
+        <v>0.03</v>
+      </c>
+      <c r="K12" s="26"/>
+      <c r="L12" s="23">
+        <f t="shared" si="4"/>
+        <v>0.54</v>
+      </c>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="138">
+        <f t="shared" si="3"/>
+        <v>8.9519343869407475</v>
+      </c>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
+    </row>
+    <row r="13" spans="1:33">
       <c r="A13" s="10">
         <v>19</v>
       </c>
@@ -15568,8 +16509,43 @@
         <f t="shared" si="2"/>
         <v>0.53872199999999992</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="I13" s="91">
+        <v>19</v>
+      </c>
+      <c r="J13" s="135">
+        <v>0.02</v>
+      </c>
+      <c r="K13" s="26"/>
+      <c r="L13" s="23">
+        <f t="shared" si="4"/>
+        <v>0.38</v>
+      </c>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="138">
+        <f>(($E$4-I13)^2)*J13</f>
+        <v>6.6789240579604998</v>
+      </c>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14" s="10">
         <v>20</v>
       </c>
@@ -15588,8 +16564,46 @@
         <f t="shared" si="2"/>
         <v>0.38316099999999992</v>
       </c>
+      <c r="I14" s="91">
+        <v>20</v>
+      </c>
+      <c r="J14" s="135">
+        <v>0.01</v>
+      </c>
+      <c r="K14" s="26"/>
+      <c r="L14" s="23">
+        <f>I14*J14</f>
+        <v>0.2</v>
+      </c>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="138">
+        <f t="shared" si="3"/>
+        <v>3.7149459289802498</v>
+      </c>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="26"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L2:P2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15605,23 +16619,23 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="96"/>
+      <c r="B2" s="103"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="96"/>
+      <c r="B3" s="103"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="12" t="s">
@@ -15629,23 +16643,23 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="12" t="s">
@@ -15653,153 +16667,153 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="95"/>
+      <c r="B12" s="102"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="95"/>
+      <c r="B16" s="102"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="103"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="95"/>
+      <c r="B21" s="102"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="103"/>
+      <c r="N22" s="103"/>
+      <c r="O22" s="103"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="97" t="s">
+      <c r="A25" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="97"/>
+      <c r="B25" s="104"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="96" t="s">
+      <c r="A26" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="96"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="96"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="103"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="96" t="s">
+      <c r="A28" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="96"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="96"/>
-      <c r="R28" s="96"/>
-      <c r="S28" s="96"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="103"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="103"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="103"/>
+      <c r="P28" s="103"/>
+      <c r="Q28" s="103"/>
+      <c r="R28" s="103"/>
+      <c r="S28" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -15836,26 +16850,26 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="99"/>
+      <c r="B1" s="106"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
@@ -15866,95 +16880,95 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="99"/>
+      <c r="B5" s="106"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="101"/>
+      <c r="B9" s="108"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="103" t="s">
+      <c r="A14" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="101"/>
+      <c r="B17" s="108"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="103"/>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="11"/>
@@ -15987,20 +17001,20 @@
       <c r="L20" s="11"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
@@ -16008,39 +17022,39 @@
       </c>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="96" t="s">
+      <c r="A24" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="96"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="96"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="103"/>
+      <c r="N24" s="103"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="96" t="s">
+      <c r="A25" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="96"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="96"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="103"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="103"/>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" t="s">
@@ -16048,30 +17062,30 @@
       </c>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="93" t="s">
+      <c r="A28" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="93"/>
-      <c r="K28" s="93"/>
-      <c r="L28" s="93" t="s">
+      <c r="B28" s="100"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="M28" s="93"/>
-      <c r="N28" s="93"/>
-      <c r="O28" s="93"/>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="93"/>
-      <c r="R28" s="93"/>
-      <c r="S28" s="93"/>
-      <c r="T28" s="93"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="100"/>
+      <c r="Q28" s="100"/>
+      <c r="R28" s="100"/>
+      <c r="S28" s="100"/>
+      <c r="T28" s="100"/>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
@@ -16082,25 +17096,25 @@
       </c>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="95" t="s">
+      <c r="A30" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="95"/>
+      <c r="B30" s="102"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="93" t="s">
+      <c r="A32" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="93"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="93"/>
-      <c r="K32" s="93"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
       <c r="L32" t="s">
         <v>78</v>
       </c>
@@ -16111,32 +17125,32 @@
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="96" t="s">
+      <c r="A35" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="96"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="96" t="s">
+      <c r="A37" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="96"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="96"/>
-      <c r="L37" s="96"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="103"/>
+      <c r="J37" s="103"/>
+      <c r="K37" s="103"/>
+      <c r="L37" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -16168,7 +17182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1BE6F3-6062-2246-9CEF-58D2A7F514AF}">
   <dimension ref="A1:L213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
